--- a/medicine/Enfance/Étienne_Delessert_(peintre)/Étienne_Delessert_(peintre).xlsx
+++ b/medicine/Enfance/Étienne_Delessert_(peintre)/Étienne_Delessert_(peintre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Delessert_(peintre)</t>
+          <t>Étienne_Delessert_(peintre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Delessert, né à Lausanne en Suisse le 4 janvier 1941 et mort le 21 avril 2024 à Lakeville dans le Connecticut aux États-Unis[1],[2], est un écrivain, dessinateur et artiste peintre helvético-américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Delessert, né à Lausanne en Suisse le 4 janvier 1941 et mort le 21 avril 2024 à Lakeville dans le Connecticut aux États-Unis est un écrivain, dessinateur et artiste peintre helvético-américain.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Delessert_(peintre)</t>
+          <t>Étienne_Delessert_(peintre)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Delessert naît le 4 janvier 1941 à Lausanne dans le canton de Vaud[3]. Son père, Ferdinand, mort en 1960, est pasteur ; sa mère, Bérengère, meurt deux semaines après l'avoir mis au monde[4],[5].
-Après le gymnase, il travaille comme graphiste publicitaire de 1959 à 1974, en Suisse, à Paris à partir de 1961, puis à New-York[4],[6]. Il collabore notamment avec le New York Times, Le Monde, The Atlantic Monthly et Siné Hebdo[7]. Il travaille également avec Jean Piaget sur l'interprétation des dessins d'enfants par des enfants[8] ; influencé par cette rencontre, il écrit en 1970 : Comment la Souris reçoit une pierre sur la tête et découvre le monde[9].
-En 1985, il part vivre aux États-Unis, à Lakeville dans le Connecticut[6].
-Il est marié à la graphiste Rita Marshall, rencontrée en 1981, avec qui il a eu un fils prénommé Adrien[10],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Delessert naît le 4 janvier 1941 à Lausanne dans le canton de Vaud. Son père, Ferdinand, mort en 1960, est pasteur ; sa mère, Bérengère, meurt deux semaines après l'avoir mis au monde,.
+Après le gymnase, il travaille comme graphiste publicitaire de 1959 à 1974, en Suisse, à Paris à partir de 1961, puis à New-York,. Il collabore notamment avec le New York Times, Le Monde, The Atlantic Monthly et Siné Hebdo. Il travaille également avec Jean Piaget sur l'interprétation des dessins d'enfants par des enfants ; influencé par cette rencontre, il écrit en 1970 : Comment la Souris reçoit une pierre sur la tête et découvre le monde.
+En 1985, il part vivre aux États-Unis, à Lakeville dans le Connecticut.
+Il est marié à la graphiste Rita Marshall, rencontrée en 1981, avec qui il a eu un fils prénommé Adrien,.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Delessert_(peintre)</t>
+          <t>Étienne_Delessert_(peintre)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,17 +559,15 @@
           <t>Parcours artistique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Delessert illustre son premier livre en 1962[11], un essai de Joël Jakubec intitulé « Kafka contre l'absurde »[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Delessert illustre son premier livre en 1962, un essai de Joël Jakubec intitulé « Kafka contre l'absurde ».
 En 1967, paraît son premier livre, Sans fin la fête, chez Harlin Quist.
-En 1973, il fonde la société Carabosse à Lausanne qui conçoit et réalise des dessins animés pour la télévision[6]. Il crée les éditions Tournesol en 1978 avec Anne van der Essen[13].
-En 1979, il dessine l'affiche du film Les Petites Fugues, d'Yves Yersin[14].
-Etienne Delessert (en français : Étienne Delessert) évoque l'influence de l'art graphique et des affichistes suisses sur son travail[9].
-Yok-Yok
-Yok-Yok est un petit personnage à bonnet rouge, un chapeau de champignon[11], qui vit dans une coquille de noix[15]. Il est créé par Étienne Delessert[4] en 1976 à la suite d'une commande de la Télévision suisse romande pour une série de brefs films d'animation destinés à signaler la fin du programme pour enfants et le début des programmes d'informations sur la chaîne[15].
-Le personnage est né au domaine du Bochet à Saint-Sulpice, domicile du couple. Son épouse Anne van der Essen a contribué à rédiger les scénarios et a trouvé le nom Yok-Yok. Elle se confie à ce sujet en 1978 : « Nous y avons réfléchi durant des jours, des nuits même. Il nous arrivait de noter une idée avant de nous endormir. Nos amis nous appelaient à n'importe quel heure pour nous soumettre leurs trouvailles. Henri Dès nous réveillait à minuit. Lova Golovtchiner à l'aube. Bernique ! Finalement, je me suis mise à assembler des mots avec des lettres et des onomatopées. Yok-Yok est sorti d'une combinaison. J'avais enfin trouvé un nom qui puisse passer dans nos  trois langues nationales ». Le couple indique que son aspect physique s'est très tôt imposé. Un petit bonhomme genre Till l'Espiègle. Sa personnalité a mis plus de temps à se forger. De leur séjour aux États-Unis, ils ont rapporté la contradiction positive. L'un avance une idée, l'autre la remet aussitôt en question. Un caractère à la fois simple, c'est à dire compréhensible par tous les téléspectateurs subitement intégré à l'époque. Yok-Yok connaît tout, sait tout, se tire de toutes les situations, apparaît partout. Cinq graphistes collaborent à l'opération. Les dessins animés sont conçus selon la méthode dite du papier découpé. Les images sont composées d'éléments collés les uns sur les autres afin de donner l'impression parfaite du relief. Les dessins sont animés à Zurich par Jean Zipper et monté à Lausanne par Elisabeth Wälschi. La musique est composée par Henri Dès[16].
-Le personnage renaît en 2011 avec cinq nouveaux albums, après plus de 30 ans de silence[3],[15].
+En 1973, il fonde la société Carabosse à Lausanne qui conçoit et réalise des dessins animés pour la télévision. Il crée les éditions Tournesol en 1978 avec Anne van der Essen.
+En 1979, il dessine l'affiche du film Les Petites Fugues, d'Yves Yersin.
+Etienne Delessert (en français : Étienne Delessert) évoque l'influence de l'art graphique et des affichistes suisses sur son travail.
 </t>
         </is>
       </c>
@@ -566,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Delessert_(peintre)</t>
+          <t>Étienne_Delessert_(peintre)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,15 +593,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Parcours artistique</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2006, 2010 et 2016 : sélectionné pour le Prix Hans-Christian-Andersen dans la catégorie illustration (finaliste en 2010)[17],[18],[19]
-1981 et 1989 : Prix Graphique de la Foire du livre de jeunesse de Bologne[6]
-1969, 1979 et 1985 : Plaque d'Or de la Biennale d'illustration de Bratislava[6],[20]
-2023 : Grand Prix suisse de designGrand Prix suisse de design[21]</t>
+          <t>Yok-Yok</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yok-Yok est un petit personnage à bonnet rouge, un chapeau de champignon, qui vit dans une coquille de noix. Il est créé par Étienne Delessert en 1976 à la suite d'une commande de la Télévision suisse romande pour une série de brefs films d'animation destinés à signaler la fin du programme pour enfants et le début des programmes d'informations sur la chaîne.
+Le personnage est né au domaine du Bochet à Saint-Sulpice, domicile du couple. Son épouse Anne van der Essen a contribué à rédiger les scénarios et a trouvé le nom Yok-Yok. Elle se confie à ce sujet en 1978 : « Nous y avons réfléchi durant des jours, des nuits même. Il nous arrivait de noter une idée avant de nous endormir. Nos amis nous appelaient à n'importe quel heure pour nous soumettre leurs trouvailles. Henri Dès nous réveillait à minuit. Lova Golovtchiner à l'aube. Bernique ! Finalement, je me suis mise à assembler des mots avec des lettres et des onomatopées. Yok-Yok est sorti d'une combinaison. J'avais enfin trouvé un nom qui puisse passer dans nos  trois langues nationales ». Le couple indique que son aspect physique s'est très tôt imposé. Un petit bonhomme genre Till l'Espiègle. Sa personnalité a mis plus de temps à se forger. De leur séjour aux États-Unis, ils ont rapporté la contradiction positive. L'un avance une idée, l'autre la remet aussitôt en question. Un caractère à la fois simple, c'est à dire compréhensible par tous les téléspectateurs subitement intégré à l'époque. Yok-Yok connaît tout, sait tout, se tire de toutes les situations, apparaît partout. Cinq graphistes collaborent à l'opération. Les dessins animés sont conçus selon la méthode dite du papier découpé. Les images sont composées d'éléments collés les uns sur les autres afin de donner l'impression parfaite du relief. Les dessins sont animés à Zurich par Jean Zipper et monté à Lausanne par Elisabeth Wälschi. La musique est composée par Henri Dès.
+Le personnage renaît en 2011 avec cinq nouveaux albums, après plus de 30 ans de silence,.
+</t>
         </is>
       </c>
     </row>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Delessert_(peintre)</t>
+          <t>Étienne_Delessert_(peintre)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,18 +632,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Expositions</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Une exposition des dessins originaux de la nouvelle série (Gallimard) a lieu[Quand ?] au Salon du livre de Genève[6].
-1975 : rétrospective au Musée des arts décoratifs de Paris[22]
-1991 : au Palazzo delle Esposizioni de Rome.
-fin 1997 - avril 1998 : « Les Quatre Saisons » au Musée Olympique de Lausanne[11]
-7 mai au 30 octobre 2011 : « Suite américaine », exposition rétrospective au Château de Saint-Maurice[6]
-2013 : Étienne Delessert : Plein Cadre, École Estienne, Paris.
-2025 :  28 mars au 29 juin à l’Espace Arlaud, Lausanne. Prévue de son vivant et maintenue après sa mort, cette exposition avait pour vocation à le remercier pour la donation des 220 œuvres que se répartiront la Bibliothèque cantonale universitaire et les Archives cantonales vaudoises[1].</t>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2006, 2010 et 2016 : sélectionné pour le Prix Hans-Christian-Andersen dans la catégorie illustration (finaliste en 2010)
+1981 et 1989 : Prix Graphique de la Foire du livre de jeunesse de Bologne
+1969, 1979 et 1985 : Plaque d'Or de la Biennale d'illustration de Bratislava,
+2023 : Grand Prix suisse de designGrand Prix suisse de design</t>
         </is>
       </c>
     </row>
@@ -635,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Delessert_(peintre)</t>
+          <t>Étienne_Delessert_(peintre)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,14 +667,60 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une exposition des dessins originaux de la nouvelle série (Gallimard) a lieu[Quand ?] au Salon du livre de Genève.
+1975 : rétrospective au Musée des arts décoratifs de Paris
+1991 : au Palazzo delle Esposizioni de Rome.
+fin 1997 - avril 1998 : « Les Quatre Saisons » au Musée Olympique de Lausanne
+7 mai au 30 octobre 2011 : « Suite américaine », exposition rétrospective au Château de Saint-Maurice
+2013 : Étienne Delessert : Plein Cadre, École Estienne, Paris.
+2025 :  28 mars au 29 juin à l’Espace Arlaud, Lausanne. Prévue de son vivant et maintenue après sa mort, cette exposition avait pour vocation à le remercier pour la donation des 220 œuvres que se répartiront la Bibliothèque cantonale universitaire et les Archives cantonales vaudoises.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Étienne_Delessert_(peintre)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Delessert_(peintre)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Livres
-Écriture et illustration
-Sans fin la Fête. Écrit avec Eleonore Schmid. Harlin Quist, 1967 | Gallimard, 1986.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Écriture et illustration</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sans fin la Fête. Écrit avec Eleonore Schmid. Harlin Quist, 1967 | Gallimard, 1986.
 Comment la Souris reçoit une pierre sur la tête et découvre le monde. Préface de Jean Piaget. Good Book-Doublebay 1971| L'École des loisirs, 1971 | Gallimard Jeunesse, coll. Folio Benjamin, 1980 | Éditions MeMo, 2018.
 Chanson d'hiver. Farrar, Straux &amp; Giroux, 1988 | Gallimard, 1988.
 La Corne de brume. Stewart, Tabori &amp; Chang, 1990 | Gallimard, 1990.
@@ -675,9 +738,47 @@
 Spartacus l'araignée. Creative Editions, 2010 | Gallimard Jeunesse / Hors-série Giboulées, 2010.
 Yok-Yok : Une Noix, L'Escargot, Les Monstres, Les Bons et les Mauvais, Le Chat qui parle trop, La Pluie, L'Oiseau qui dort haut dans le ciel, La Tulipe, Cache-cache, Le Hérisson, Promenade en forêt, Le Hibou blanc. Gallimard Jeunesse / Giboulées, 2011-2014.
 Un verre. Creative Editions, 2013 | Éditions MeMo, 2013.
-Cirque de nuit. Creative Editions, 2015 | Éditions MeMo, 2015.
-Illustration seulement
-Kafka contre l'absurde. Par Joël Jakubec. Cahiers de la Renaissance vaudoise, 1962.
+Cirque de nuit. Creative Editions, 2015 | Éditions MeMo, 2015.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Étienne_Delessert_(peintre)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Delessert_(peintre)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Livres</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Illustration seulement</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Kafka contre l'absurde. Par Joël Jakubec. Cahiers de la Renaissance vaudoise, 1962.
 Contes pour enfants de moins de 3 ans, textes d'Eugène Ionesco, éd. Harlin Quist en anglais, éd. Gallimard en français
 Conte no 1, 1968
 Conte no 2, 1970
@@ -705,9 +806,43 @@
 J'aime vraiment pas lire !. Par Rita Marshall. Creative Education et Gallimard Jeunesse, 2007.
 The Lonely Pine. Par Aaron Frisch. Creative Education, 2011.
 Les Secrets du druide. Par Annick Monod et Cathy Roggen-Crausaz, Domdidier, Éditions du Bois Carré, 2016, 255 p.,  (ISBN 978-2-9701088-0-1).
-Wild Things. Par Yuval Dishon, Éditions l'Âge d'Homme, 2018 (pièce de théâtre de la Cie Zanco)
-Illustration de disques
-Entre 30 et 40 albums d'Henri Dès[23],[24]</t>
+Wild Things. Par Yuval Dishon, Éditions l'Âge d'Homme, 2018 (pièce de théâtre de la Cie Zanco)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Étienne_Delessert_(peintre)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89tienne_Delessert_(peintre)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Illustration de disques</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Entre 30 et 40 albums d'Henri Dès,</t>
         </is>
       </c>
     </row>
